--- a/PageObjectModel/data/PalmOilMillProductionPlotInput.xlsx
+++ b/PageObjectModel/data/PalmOilMillProductionPlotInput.xlsx
@@ -40,10 +40,10 @@
     <t>Fresh fruit bunch (#FFB)</t>
   </si>
   <si>
-    <t>788</t>
+    <t>123</t>
   </si>
   <si>
-    <t>700</t>
+    <t>789</t>
   </si>
 </sst>
 </file>
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,6 +74,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -81,17 +88,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,6 +110,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -110,17 +172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,54 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,21 +208,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -224,13 +224,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,13 +260,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,31 +362,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,103 +398,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +437,26 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -473,6 +493,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -487,32 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -521,168 +530,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -1007,7 +1009,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1030,27 +1032,27 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>9</v>
       </c>
     </row>

--- a/PageObjectModel/data/PalmOilMillProductionPlotInput.xlsx
+++ b/PageObjectModel/data/PalmOilMillProductionPlotInput.xlsx
@@ -40,10 +40,10 @@
     <t>Fresh fruit bunch (#FFB)</t>
   </si>
   <si>
-    <t>123</t>
+    <t>1</t>
   </si>
   <si>
-    <t>789</t>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -53,8 +53,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,8 +73,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,21 +85,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,17 +96,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,6 +148,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -149,14 +186,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -166,35 +195,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -202,10 +202,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,11 +433,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,17 +452,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -473,6 +468,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,21 +511,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -530,10 +519,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,149 +542,147 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
@@ -1009,7 +1007,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1032,27 +1030,27 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
     </row>

--- a/PageObjectModel/data/PalmOilMillProductionPlotInput.xlsx
+++ b/PageObjectModel/data/PalmOilMillProductionPlotInput.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>UserName</t>
   </si>
@@ -40,10 +40,7 @@
     <t>Fresh fruit bunch (#FFB)</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>7</t>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -51,10 +48,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,18 +70,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,7 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,30 +109,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +125,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -156,6 +141,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -165,6 +171,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -178,32 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,13 +221,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,163 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,16 +431,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,6 +450,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,9 +480,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,16 +505,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,167 +522,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1007,7 +1004,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1051,7 +1048,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
